--- a/medicine/Psychotrope/Famille_Wielemans/Famille_Wielemans.xlsx
+++ b/medicine/Psychotrope/Famille_Wielemans/Famille_Wielemans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille Wielemans, est une famille de grands brasseurs bruxellois, connue pour avoir fondé en 1875 la Brasserie Wielemans-Ceuppens qui ferma ses portes en 1988 lorsqu'elle fut rachetée par le groupe Interbrew.
 Également active dans le domaine de l'hôtellerie, cette famille acquit l'Hôtel Métropole à Bruxelles.
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille Wielemans est originaire de Hoeilaart. André Wielemans[1], né à Hoeilaart le 6 février 1780, dont l'oncle Pierre Wielemans né à Hoeilaart le 23 mai 1738, avait déjà été reçu bourgeois de Bruxelles[2] le 20 mai 1795, s'établit à Bruxelles comme boulanger.
-L'activité brassicole de cette famille commence avec son fils Lambert Wielemans[3] (1817-1863), descendant par sa mère Marie-Thérèse Goossens, d'une vieille lignée brabançonne issue des Lignages de Bruxelles[4], et qui épousa en 1838 la fille d'un brasseur ixellois, Ida Ceuppens (1817-1883). Par la suite Ida Ceuppens, veuve depuis 1863, fonda en 1875 la société en nom collectif Wielemans-Ceuppens avec ses fils[5] André Wielemans (Bruxelles, 13 mars 1848 - 11 mars 1906), Édouard Wielemans (Bruxelles, 8 février 1852 - 25 octobre 1927), et Prosper Wielemans (Bruxelles, 2 février 1850 - 14 avril 1932).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille Wielemans est originaire de Hoeilaart. André Wielemans, né à Hoeilaart le 6 février 1780, dont l'oncle Pierre Wielemans né à Hoeilaart le 23 mai 1738, avait déjà été reçu bourgeois de Bruxelles le 20 mai 1795, s'établit à Bruxelles comme boulanger.
+L'activité brassicole de cette famille commence avec son fils Lambert Wielemans (1817-1863), descendant par sa mère Marie-Thérèse Goossens, d'une vieille lignée brabançonne issue des Lignages de Bruxelles, et qui épousa en 1838 la fille d'un brasseur ixellois, Ida Ceuppens (1817-1883). Par la suite Ida Ceuppens, veuve depuis 1863, fonda en 1875 la société en nom collectif Wielemans-Ceuppens avec ses fils André Wielemans (Bruxelles, 13 mars 1848 - 11 mars 1906), Édouard Wielemans (Bruxelles, 8 février 1852 - 25 octobre 1927), et Prosper Wielemans (Bruxelles, 2 février 1850 - 14 avril 1932).
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Membres de cette famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Félix Wielemans (1863-1917), chef d'état-major et conseiller militaire du roi Albert 1er.
 Prosper Wielemans-Ceuppens (1850-1932), brasseur et homme politique libéral, époux d'Adrienne-Élisabeth Vandenperre (1856-1938).</t>
@@ -576,7 +592,9 @@
           <t>Industrie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brasserie Wielemans-Ceuppens
 Hôtel Métropole, acheté en 1891 par la brasserie Wielemans-Ceuppens.
@@ -608,7 +626,9 @@
           <t>Lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>BRASS, centre culturel de Forest situé dans l'ancienne brasserie Wielemans-Ceuppens.
 Wiels, centre d'art situé dans l'ancienne brasserie Wielemans-Ceuppens.
@@ -641,6 +661,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
